--- a/expData.xlsx
+++ b/expData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\Rein-Bits\Rein-Bits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D333AF-1A7F-452C-B206-ED44D6C4512C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED43F4-9C0F-4274-82D3-5754E913333F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,35 +20,7 @@
     <sheet name="ReinBits2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$G$2:$G$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$H$2:$H$10</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$I$2:$I$10</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$32:$A$40</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$31</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$32:$B$40</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$31</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$32:$C$40</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$D$31</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$D$32:$D$40</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$32:$A$40</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$31</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$32:$B$40</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$C$31</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$32:$C$40</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$D$31</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$D$32:$D$40</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$2:$D$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$2:$E$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$32:$D$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -60,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9263" uniqueCount="3243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9263" uniqueCount="3245">
   <si>
     <t>memory=152MB</t>
   </si>
@@ -9756,51 +9728,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ReinBits纯静</t>
+    <t>Mark Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ReinBits1静静</t>
+    <t>Count Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ReinBits2静动</t>
+    <t>Or Operation Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比较时间</t>
+    <t>Matching Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标记时间</t>
+    <t>Rein Time Distribution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计数时间</t>
+    <t>Average</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rein时间分布</t>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>匹配时间</t>
+    <t>Comparison Time</t>
+  </si>
+  <si>
+    <t>BIOPPS</t>
+  </si>
+  <si>
+    <t>BIOP1SS</t>
+  </si>
+  <si>
+    <t>BIOP2SD</t>
+  </si>
+  <si>
+    <t>BIOPPS Time Distribution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ReinBits1时间分布</t>
+    <t>BIOP1SS Time Distribution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>或运算时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReinBits时间分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReinBits2时间分布</t>
+    <t>BIOP2SD Time Distribution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9847,7 +9823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9855,7 +9831,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10054,17 +10029,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10092,48 +10060,47 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$B$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23.031307000000002</c:v>
+                  <c:v>24.139572000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.469339000000002</c:v>
+                  <c:v>24.0336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.501826999999999</c:v>
+                  <c:v>23.992446999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.888953999999998</c:v>
+                  <c:v>23.869378999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.143245</c:v>
+                  <c:v>22.937177999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.049392000000001</c:v>
+                  <c:v>23.925636000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.969318000000001</c:v>
+                  <c:v>24.025371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.498016</c:v>
+                  <c:v>23.739633999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.440259999999999</c:v>
+                  <c:v>23.786113</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.917904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10154,7 +10121,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReinBits纯静</c:v>
+                  <c:v>BIOPPS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10189,17 +10156,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10227,48 +10187,47 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$2:$C$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.626268</c:v>
+                  <c:v>14.517339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.938022</c:v>
+                  <c:v>14.533696000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7116039999999995</c:v>
+                  <c:v>8.8727479999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2532209999999999</c:v>
+                  <c:v>5.1371700000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3702719999999999</c:v>
+                  <c:v>3.3713839999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4307690000000002</c:v>
+                  <c:v>2.5953059999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.946623</c:v>
+                  <c:v>2.0327799999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.728424</c:v>
+                  <c:v>1.7666360000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.695049</c:v>
+                  <c:v>1.626835</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6096490000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10289,7 +10248,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReinBits1静静</c:v>
+                  <c:v>BIOP1SS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10324,17 +10283,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10362,48 +10314,47 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$2:$D$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.396644999999999</c:v>
+                  <c:v>14.316406000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8573719999999998</c:v>
+                  <c:v>8.0160689999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1299020000000004</c:v>
+                  <c:v>4.0462300000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6269209999999998</c:v>
+                  <c:v>2.6810239999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.911521</c:v>
+                  <c:v>1.9228769999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.588916</c:v>
+                  <c:v>1.587853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4614750000000001</c:v>
+                  <c:v>1.4489510000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3907579999999999</c:v>
+                  <c:v>1.444474</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.368763</c:v>
+                  <c:v>1.367348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3515170000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10424,7 +10375,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReinBits2静动</c:v>
+                  <c:v>BIOP2SD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10457,17 +10408,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10495,48 +10439,47 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$2:$E$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.855565</c:v>
+                  <c:v>12.841639000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.02482</c:v>
+                  <c:v>10.00994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9569320000000001</c:v>
+                  <c:v>5.0079909999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9502950000000001</c:v>
+                  <c:v>3.04013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1648450000000001</c:v>
+                  <c:v>2.134684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.423549</c:v>
+                  <c:v>1.8909199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1190799999999999</c:v>
+                  <c:v>1.7523770000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.694736</c:v>
+                  <c:v>1.69211</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.673225</c:v>
+                  <c:v>1.8766799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7578180000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10608,8 +10551,13 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                  <a:t>指数</a:t>
+                  <a:t> </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>Exponent</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10713,9 +10661,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-                  <a:t>匹配时间</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>Matching Time</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10960,7 +10909,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReinBits纯静</c:v>
+                  <c:v>BIOPPS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10991,10 +10940,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11022,41 +10971,47 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$10</c:f>
+              <c:f>Sheet1!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.40835889165994799</c:v>
+                  <c:v>0.39860826861387599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4061178288830376</c:v>
+                  <c:v>0.39527594700752278</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62932226503071442</c:v>
+                  <c:v>0.63018578305080752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78893363698611041</c:v>
+                  <c:v>0.78477990566910016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85437340355684777</c:v>
+                  <c:v>0.85301661782456417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8945408625095187</c:v>
+                  <c:v>0.89152614375642925</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.915251162442002</c:v>
+                  <c:v>0.91539027638740733</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92644383253462759</c:v>
+                  <c:v>0.92558284596973983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88502478214832081</c:v>
+                  <c:v>0.93160568101227803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93270108450974631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11077,7 +11032,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReinBits1静静</c:v>
+                  <c:v>BIOP1SS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11108,10 +11063,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11139,41 +11094,47 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$10</c:f>
+              <c:f>Sheet1!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.3314906097165915</c:v>
+                  <c:v>0.40693206988094077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62259814816258785</c:v>
+                  <c:v>0.66646407529458762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69662350080272484</c:v>
+                  <c:v>0.83135400903459322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89445434307926319</c:v>
+                  <c:v>0.88767935688649457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91740479781465389</c:v>
+                  <c:v>0.91616767328570237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93106473264023626</c:v>
+                  <c:v>0.93363382273307172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93637272991736198</c:v>
+                  <c:v>0.93969079603390937</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94081381168520783</c:v>
+                  <c:v>0.9391534848431109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94160632177288139</c:v>
+                  <c:v>0.94251486150763686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94349350177172719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11194,7 +11155,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReinBits2静动</c:v>
+                  <c:v>BIOP2SD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11225,10 +11186,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11256,41 +11217,47 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$10</c:f>
+              <c:f>Sheet1!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.44182216840755062</c:v>
+                  <c:v>0.46802540658135938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57285460830405155</c:v>
+                  <c:v>0.58350226349776979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7890831210696938</c:v>
+                  <c:v>0.79126801863936591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88146167171187662</c:v>
+                  <c:v>0.87263472585524737</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90645888249465445</c:v>
+                  <c:v>0.90693345101127965</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89485410287611922</c:v>
+                  <c:v>0.92096678224144179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86420667779513527</c:v>
+                  <c:v>0.92706139688748201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92787748548643423</c:v>
+                  <c:v>0.92872215300370675</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9286174726730847</c:v>
+                  <c:v>0.92110186309129194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92650618549183905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11317,7 +11284,7 @@
         <c:axId val="842766528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
+          <c:max val="9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11675,9 +11642,14 @@
               <a:t>Rein</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>时间分布</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -11726,7 +11698,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>比较时间</c:v>
+                  <c:v>Comparison Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11809,7 +11781,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$32:$B$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.5415999999999997E-2</c:v>
@@ -11856,7 +11828,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>标记时间</c:v>
+                  <c:v>Mark Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11939,7 +11911,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$32:$C$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>22.008139</c:v>
@@ -11986,7 +11958,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>计数时间</c:v>
+                  <c:v>Count Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12069,7 +12041,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$32:$D$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.94114299999999995</c:v>
@@ -12458,13 +12430,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ReinBits</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>BIOP </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>时间分布</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Distribution</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -12513,7 +12486,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>比较时间</c:v>
+                  <c:v>Comparison Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12596,7 +12569,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$32:$G$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.4403999999999998E-2</c:v>
@@ -12643,7 +12616,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>标记时间</c:v>
+                  <c:v>Mark Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12726,7 +12699,7 @@
             <c:numRef>
               <c:f>Sheet1!$H$32:$H$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>12.305882</c:v>
@@ -12773,7 +12746,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>或运算时间</c:v>
+                  <c:v>Or Operation Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12856,7 +12829,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$32:$I$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.29181099999999999</c:v>
@@ -12903,7 +12876,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>计数时间</c:v>
+                  <c:v>Count Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12990,7 +12963,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$32:$J$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.94782900000000003</c:v>
@@ -13380,12 +13353,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ReinBits1</a:t>
+              <a:t>BIOP1</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>时间分布</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -13434,7 +13412,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>比较时间</c:v>
+                  <c:v>Comparison Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13517,7 +13495,7 @@
             <c:numRef>
               <c:f>Sheet1!$M$32:$M$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9.5599000000000003E-2</c:v>
@@ -13564,7 +13542,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>标记时间</c:v>
+                  <c:v>Mark Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13647,7 +13625,7 @@
             <c:numRef>
               <c:f>Sheet1!$N$32:$N$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>14.103688</c:v>
@@ -13694,7 +13672,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>或运算时间</c:v>
+                  <c:v>Or Operation Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13777,7 +13755,7 @@
             <c:numRef>
               <c:f>Sheet1!$O$32:$O$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.53570899999999999</c:v>
@@ -13824,7 +13802,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>计数时间</c:v>
+                  <c:v>Count Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13911,7 +13889,7 @@
             <c:numRef>
               <c:f>Sheet1!$P$32:$P$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.64551700000000001</c:v>
@@ -14301,12 +14279,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ReinBits2</a:t>
+              <a:t>BIOP2 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>时间分布</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time Distribution</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -14355,7 +14336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>比较时间</c:v>
+                  <c:v>Comparison Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14438,7 +14419,7 @@
             <c:numRef>
               <c:f>Sheet1!$S$32:$S$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8.1270999999999996E-2</c:v>
@@ -14485,7 +14466,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>标记时间</c:v>
+                  <c:v>Mark Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14568,7 +14549,7 @@
             <c:numRef>
               <c:f>Sheet1!$T$32:$T$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>11.45692</c:v>
@@ -14615,7 +14596,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>或运算时间</c:v>
+                  <c:v>Or Operation Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14698,7 +14679,7 @@
             <c:numRef>
               <c:f>Sheet1!$U$32:$U$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.34373700000000001</c:v>
@@ -14745,7 +14726,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>计数时间</c:v>
+                  <c:v>Count Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14832,7 +14813,7 @@
             <c:numRef>
               <c:f>Sheet1!$V$32:$V$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.94608300000000001</c:v>
@@ -15187,6 +15168,443 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rein Time Distribution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A970-48F7-981F-7A9BC17B2428}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A970-48F7-981F-7A9BC17B2428}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A970-48F7-981F-7A9BC17B2428}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19216705869309572"/>
+                  <c:y val="-9.738097585203663E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.21920002891964857"/>
+                      <c:h val="0.10064309932126553"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A970-48F7-981F-7A9BC17B2428}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.574020120970142E-2"/>
+                  <c:y val="-0.18656130356383224"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.29265593627206404"/>
+                      <c:h val="0.11072252839700568"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A970-48F7-981F-7A9BC17B2428}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21582066826202573"/>
+                  <c:y val="-8.4612243569800447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25877756520866557"/>
+                      <c:h val="0.11072252839700568"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A970-48F7-981F-7A9BC17B2428}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$31:$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Comparison Time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mark Time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Count Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.5415999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.008139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94114299999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A970-48F7-981F-7A9BC17B2428}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15383,6 +15801,43 @@
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -18552,20 +19007,488 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>318281</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>97888</xdr:rowOff>
+      <xdr:colOff>238768</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>164350</xdr:rowOff>
+      <xdr:colOff>521137</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>51707</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18593,15 +19516,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>748519</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>688884</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>73550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57872</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>173142</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607837</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18630,14 +19553,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>396668</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>74081</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>67455</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18667,13 +19590,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>398790</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>6090</xdr:rowOff>
+      <xdr:rowOff>171742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>297865</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>72551</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>65925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18702,14 +19625,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114912</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>75409</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>68783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>396262</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>138303</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>131677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18738,14 +19661,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>400215</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>79512</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>72886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>298782</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>142406</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>135780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18767,6 +19690,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>311424</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>324677</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59634</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A04D183-6648-4454-A71C-0D3809E9A802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19038,441 +19997,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="8.88671875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="16.5546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3238</v>
+        <v>3234</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3231</v>
+        <v>3239</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3232</v>
+        <v>3240</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>3241</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>3231</v>
+        <v>3239</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3232</v>
+        <v>3240</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3233</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
-        <v>23.031307000000002</v>
-      </c>
-      <c r="C2" s="4">
-        <v>13.626268</v>
-      </c>
-      <c r="D2" s="4">
-        <v>15.396644999999999</v>
-      </c>
-      <c r="E2" s="4">
-        <v>12.855565</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3">
+      <c r="B2" s="3">
+        <v>24.139572000000001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>14.517339</v>
+      </c>
+      <c r="D2" s="3">
+        <v>14.316406000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>12.841639000000001</v>
+      </c>
+      <c r="G2" s="2">
         <f>1-C2/B2</f>
-        <v>0.40835889165994799</v>
-      </c>
-      <c r="H2" s="3">
+        <v>0.39860826861387599</v>
+      </c>
+      <c r="H2" s="2">
         <f>1-D2/B2</f>
-        <v>0.3314906097165915</v>
-      </c>
-      <c r="I2" s="3">
+        <v>0.40693206988094077</v>
+      </c>
+      <c r="I2" s="2">
         <f>1-E2/B2</f>
-        <v>0.44182216840755062</v>
+        <v>0.46802540658135938</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>23.469339000000002</v>
-      </c>
-      <c r="C3" s="4">
-        <v>13.938022</v>
-      </c>
-      <c r="D3" s="4">
-        <v>8.8573719999999998</v>
-      </c>
-      <c r="E3" s="4">
-        <v>10.02482</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:I10" si="0">1-C3/B3</f>
-        <v>0.4061178288830376</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="B3" s="3">
+        <v>24.0336</v>
+      </c>
+      <c r="C3" s="3">
+        <v>14.533696000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8.0160689999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10.00994</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G10" si="0">1-C3/B3</f>
+        <v>0.39527594700752278</v>
+      </c>
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H10" si="1">1-D3/B3</f>
-        <v>0.62259814816258785</v>
-      </c>
-      <c r="I3" s="3">
+        <v>0.66646407529458762</v>
+      </c>
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I10" si="2">1-E3/B3</f>
-        <v>0.57285460830405155</v>
+        <v>0.58350226349776979</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>23.501826999999999</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8.7116039999999995</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7.1299020000000004</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4.9569320000000001</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3">
+      <c r="B4" s="3">
+        <v>23.992446999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.8727479999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.0462300000000004</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5.0079909999999996</v>
+      </c>
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>0.62932226503071442</v>
-      </c>
-      <c r="H4" s="3">
+        <v>0.63018578305080752</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" si="1"/>
-        <v>0.69662350080272484</v>
-      </c>
-      <c r="I4" s="3">
+        <v>0.83135400903459322</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>0.7890831210696938</v>
+        <v>0.79126801863936591</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>24.888953999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5.2532209999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.6269209999999998</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2.9502950000000001</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3">
+      <c r="B5" s="3">
+        <v>23.869378999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.1371700000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.6810239999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.04013</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>0.78893363698611041</v>
-      </c>
-      <c r="H5" s="3">
+        <v>0.78477990566910016</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
-        <v>0.89445434307926319</v>
-      </c>
-      <c r="I5" s="3">
+        <v>0.88767935688649457</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>0.88146167171187662</v>
+        <v>0.87263472585524737</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>23.143245</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3.3702719999999999</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.911521</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2.1648450000000001</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3">
+      <c r="B6" s="3">
+        <v>22.937177999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.3713839999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.9228769999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.134684</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>0.85437340355684777</v>
-      </c>
-      <c r="H6" s="3">
+        <v>0.85301661782456417</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
-        <v>0.91740479781465389</v>
-      </c>
-      <c r="I6" s="3">
+        <v>0.91616767328570237</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>0.90645888249465445</v>
+        <v>0.90693345101127965</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>23.049392000000001</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2.4307690000000002</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.588916</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2.423549</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3">
+      <c r="B7" s="3">
+        <v>23.925636000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.5953059999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.587853</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.8909199999999999</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>0.8945408625095187</v>
-      </c>
-      <c r="H7" s="3">
+        <v>0.89152614375642925</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
-        <v>0.93106473264023626</v>
-      </c>
-      <c r="I7" s="3">
+        <v>0.93363382273307172</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>0.89485410287611922</v>
+        <v>0.92096678224144179</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>22.969318000000001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.946623</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.4614750000000001</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3.1190799999999999</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3">
+      <c r="B8" s="3">
+        <v>24.025371</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.0327799999999998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.4489510000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.7523770000000001</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0.915251162442002</v>
-      </c>
-      <c r="H8" s="3">
+        <v>0.91539027638740733</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>0.93637272991736198</v>
-      </c>
-      <c r="I8" s="3">
+        <v>0.93969079603390937</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>0.86420667779513527</v>
+        <v>0.92706139688748201</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>23.498016</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.728424</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.3907579999999999</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.694736</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3">
+      <c r="B9" s="3">
+        <v>23.739633999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.7666360000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.444474</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.69211</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>0.92644383253462759</v>
-      </c>
-      <c r="H9" s="3">
+        <v>0.92558284596973983</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>0.94081381168520783</v>
-      </c>
-      <c r="I9" s="3">
+        <v>0.9391534848431109</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>0.92787748548643423</v>
+        <v>0.92872215300370675</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>23.440259999999999</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2.695049</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1.368763</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.673225</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3">
+      <c r="B10" s="3">
+        <v>23.786113</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.626835</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.367348</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.8766799999999999</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>0.88502478214832081</v>
-      </c>
-      <c r="H10" s="3">
+        <v>0.93160568101227803</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
-        <v>0.94160632177288139</v>
-      </c>
-      <c r="I10" s="3">
+        <v>0.94251486150763686</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>0.9286174726730847</v>
-      </c>
+        <v>0.92110186309129194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>23.917904</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.6096490000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.3515170000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.7578180000000001</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11" si="3">1-C11/B11</f>
+        <v>0.93270108450974631</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ref="H11" si="4">1-D11/B11</f>
+        <v>0.94349350177172719</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" ref="I11" si="5">1-E11/B11</f>
+        <v>0.92650618549183905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3237</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3234</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="A31" s="1" t="s">
         <v>3235</v>
       </c>
-      <c r="D31" t="s">
-        <v>3236</v>
-      </c>
-      <c r="F31" t="s">
-        <v>3241</v>
-      </c>
-      <c r="G31" t="s">
-        <v>3234</v>
-      </c>
-      <c r="H31" t="s">
-        <v>3235</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>3240</v>
-      </c>
-      <c r="J31" t="s">
-        <v>3236</v>
-      </c>
-      <c r="L31" t="s">
-        <v>3239</v>
-      </c>
-      <c r="M31" t="s">
-        <v>3234</v>
-      </c>
-      <c r="N31" t="s">
-        <v>3235</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>3240</v>
-      </c>
-      <c r="P31" t="s">
-        <v>3236</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>3242</v>
       </c>
-      <c r="S31" t="s">
-        <v>3234</v>
-      </c>
-      <c r="T31" t="s">
-        <v>3235</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>3240</v>
-      </c>
-      <c r="V31" t="s">
-        <v>3236</v>
+      <c r="G31" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>3233</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>3233</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>3233</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>3232</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>7.5415999999999997E-2</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>22.008139</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>0.94114299999999995</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>7.4403999999999998E-2</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>12.305882</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>0.29181099999999999</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>0.94782900000000003</v>
       </c>
       <c r="L32" s="1">
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="3">
         <v>9.5599000000000003E-2</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="3">
         <v>14.103688</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="3">
         <v>0.53570899999999999</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="3">
         <v>0.64551700000000001</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="3">
         <v>8.1270999999999996E-2</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="3">
         <v>11.45692</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="3">
         <v>0.34373700000000001</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="3">
         <v>0.94608300000000001</v>
       </c>
     </row>
@@ -19480,58 +20486,58 @@
       <c r="A33" s="1">
         <v>1</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>7.6145000000000004E-2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>22.446057</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>0.94071300000000002</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>7.4256000000000003E-2</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>12.629198000000001</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>0.28676600000000002</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>0.94142999999999999</v>
       </c>
       <c r="L33" s="1">
         <v>1</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="3">
         <v>8.7542999999999996E-2</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="3">
         <v>7.6372359999999997</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="3">
         <v>0.45888200000000001</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="3">
         <v>0.66027999999999998</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="3">
         <v>8.1009999999999999E-2</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="3">
         <v>8.6768739999999998</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="3">
         <v>0.29648400000000003</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="3">
         <v>0.94502799999999998</v>
       </c>
     </row>
@@ -19539,58 +20545,58 @@
       <c r="A34" s="1">
         <v>2</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>7.5866000000000003E-2</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>22.474865000000001</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>0.94435100000000005</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>7.3442999999999994E-2</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>7.2677480000000001</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>0.42203000000000002</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>0.94226500000000002</v>
       </c>
       <c r="L34" s="1">
         <v>2</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="3">
         <v>7.2588E-2</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="3">
         <v>5.9781620000000002</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="3">
         <v>0.44106899999999999</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="3">
         <v>0.62713700000000006</v>
       </c>
       <c r="R34" s="1">
         <v>2</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="3">
         <v>7.2662000000000004E-2</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="3">
         <v>3.5587249999999999</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="3">
         <v>0.36478699999999997</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="3">
         <v>0.94460900000000003</v>
       </c>
     </row>
@@ -19598,58 +20604,58 @@
       <c r="A35" s="1">
         <v>3</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>9.4134999999999996E-2</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>23.820264000000002</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>0.96590900000000002</v>
       </c>
       <c r="F35" s="1">
         <v>3</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>7.7590000000000006E-2</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>3.7459220000000002</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>0.47533399999999998</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>0.947052</v>
       </c>
       <c r="L35" s="1">
         <v>3</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="3">
         <v>7.4775999999999995E-2</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="3">
         <v>1.447789</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="3">
         <v>0.462362</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="3">
         <v>0.63073100000000004</v>
       </c>
       <c r="R35" s="1">
         <v>3</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="3">
         <v>7.4281E-2</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="3">
         <v>1.477789</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="3">
         <v>0.43346200000000001</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="3">
         <v>0.94559099999999996</v>
       </c>
     </row>
@@ -19657,58 +20663,58 @@
       <c r="A36" s="1">
         <v>4</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>7.5683E-2</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>22.119676999999999</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>0.94125899999999996</v>
       </c>
       <c r="F36" s="1">
         <v>4</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>7.2362999999999997E-2</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>1.8391390000000001</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>0.50786299999999995</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>0.94517300000000004</v>
       </c>
       <c r="L36" s="1">
         <v>4</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="3">
         <v>7.2083999999999995E-2</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="3">
         <v>0.72381399999999996</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="3">
         <v>0.47844900000000001</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="3">
         <v>0.627583</v>
       </c>
       <c r="R36" s="1">
         <v>4</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="3">
         <v>7.1816000000000005E-2</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="3">
         <v>0.66547900000000004</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="3">
         <v>0.47158899999999998</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="3">
         <v>0.94172</v>
       </c>
     </row>
@@ -19716,58 +20722,58 @@
       <c r="A37" s="1">
         <v>5</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>7.5558E-2</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>22.026354000000001</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>0.94072999999999996</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>7.2000999999999996E-2</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>0.88503600000000004</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>0.52711200000000002</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>0.94150599999999995</v>
       </c>
       <c r="L37" s="1">
         <v>5</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="3">
         <v>7.2079000000000004E-2</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="3">
         <v>0.385019</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="3">
         <v>0.48963699999999999</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="3">
         <v>0.63283299999999998</v>
       </c>
       <c r="R37" s="1">
         <v>5</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="3">
         <v>9.3079999999999996E-2</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="3">
         <v>0.50374699999999994</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="3">
         <v>0.70722499999999999</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="3">
         <v>1.100957</v>
       </c>
     </row>
@@ -19775,58 +20781,58 @@
       <c r="A38" s="1">
         <v>6</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>7.5411000000000006E-2</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>21.941708999999999</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>0.94491000000000003</v>
       </c>
       <c r="F38" s="1">
         <v>6</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>7.1730000000000002E-2</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>0.372141</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>0.55639099999999997</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>0.94141699999999995</v>
       </c>
       <c r="L38" s="1">
         <v>6</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="3">
         <v>7.2164000000000006E-2</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="3">
         <v>0.24140700000000001</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="3">
         <v>0.50791900000000001</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="3">
         <v>0.630444</v>
       </c>
       <c r="R38" s="1">
         <v>6</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="3">
         <v>0.150336</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="3">
         <v>0.66032500000000005</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="3">
         <v>1.057418</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="3">
         <v>1.2295860000000001</v>
       </c>
     </row>
@@ -19834,58 +20840,58 @@
       <c r="A39" s="1">
         <v>7</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>7.5740000000000002E-2</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>22.474910000000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>0.94087699999999996</v>
       </c>
       <c r="F39" s="1">
         <v>7</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>7.1939000000000003E-2</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>0.14374799999999999</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>0.56659000000000004</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>0.941272</v>
       </c>
       <c r="L39" s="1">
         <v>7</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="3">
         <v>7.2305999999999995E-2</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="3">
         <v>0.17361199999999999</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="3">
         <v>0.50789300000000004</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="3">
         <v>0.62767200000000001</v>
       </c>
       <c r="R39" s="1">
         <v>7</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="3">
         <v>7.1909000000000001E-2</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="3">
         <v>0.14640900000000001</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="3">
         <v>0.52194300000000005</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="3">
         <v>0.94128599999999996</v>
       </c>
     </row>
@@ -19893,59 +20899,136 @@
       <c r="A40" s="1">
         <v>8</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>7.5952000000000006E-2</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>22.416246999999998</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>0.94140299999999999</v>
       </c>
       <c r="F40" s="1">
         <v>8</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>0.121311</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>9.6408999999999995E-2</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>1.5271349999999999</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>0.944913</v>
       </c>
       <c r="L40" s="1">
         <v>8</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="3">
         <v>7.3710999999999999E-2</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="3">
         <v>0.13660800000000001</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="3">
         <v>0.51829000000000003</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="3">
         <v>0.63065800000000005</v>
       </c>
       <c r="R40" s="1">
         <v>8</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="3">
         <v>7.3072999999999999E-2</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="3">
         <v>0.10748199999999999</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="3">
         <v>0.51956800000000003</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="3">
         <v>0.95931599999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B41" s="3">
+        <f>AVERAGE(B32:B40)</f>
+        <v>7.7767333333333341E-2</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" ref="C41:E41" si="6">AVERAGE(C32:C40)</f>
+        <v>22.414246888888886</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="6"/>
+        <v>0.94458833333333325</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" ref="G41:H41" si="7">AVERAGE(G32:G40)</f>
+        <v>7.8781888888888874E-2</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="7"/>
+        <v>4.3650247777777782</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" ref="I41" si="8">AVERAGE(I32:I40)</f>
+        <v>0.57344800000000007</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" ref="J41" si="9">AVERAGE(J32:J40)</f>
+        <v>0.94365077777777762</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" ref="M41" si="10">AVERAGE(M32:M40)</f>
+        <v>7.6983333333333334E-2</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" ref="N41" si="11">AVERAGE(N32:N40)</f>
+        <v>3.4252594444444444</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" ref="O41" si="12">AVERAGE(O32:O40)</f>
+        <v>0.48891222222222225</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" ref="P41" si="13">AVERAGE(P32:P40)</f>
+        <v>0.63476166666666678</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" ref="S41" si="14">AVERAGE(S32:S40)</f>
+        <v>8.5493111111111117E-2</v>
+      </c>
+      <c r="T41" s="3">
+        <f t="shared" ref="T41" si="15">AVERAGE(T32:T40)</f>
+        <v>3.0281944444444449</v>
+      </c>
+      <c r="U41" s="3">
+        <f t="shared" ref="U41" si="16">AVERAGE(U32:U40)</f>
+        <v>0.52402366666666667</v>
+      </c>
+      <c r="V41" s="3">
+        <f t="shared" ref="V41" si="17">AVERAGE(V32:V40)</f>
+        <v>0.99490844444444448</v>
       </c>
     </row>
   </sheetData>
@@ -19965,7 +21048,7 @@
   <dimension ref="A1:AG240"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T10"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/expData.xlsx
+++ b/expData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\Rein-Bits\Rein-Bits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED43F4-9C0F-4274-82D3-5754E913333F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651B4F82-742F-427E-B3AE-4302E293B608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,6 @@
     <sheet name="ReinBits1" sheetId="4" r:id="rId4"/>
     <sheet name="ReinBits2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$32:$D$32</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9263" uniqueCount="3245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9269" uniqueCount="3249">
   <si>
     <t>memory=152MB</t>
   </si>
@@ -9777,6 +9774,22 @@
   </si>
   <si>
     <t>BIOP2SD Time Distribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多事件类型，1000维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty Proportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIOPPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9784,8 +9797,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -9823,7 +9837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9832,6 +9846,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10197,7 +10217,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>14.517339</c:v>
@@ -15605,6 +15625,1529 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rein</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10209733158355216"/>
+                  <c:y val="-3.0057961504811919E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6541776027996605E-2"/>
+                  <c:y val="6.2534631087780693E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.654177602799655E-2"/>
+                  <c:y val="5.7905001458151063E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2097331583552106E-2"/>
+                  <c:y val="6.2534631087780609E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2097331583552106E-2"/>
+                  <c:y val="5.7905001458151063E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3763998250218726E-2"/>
+                  <c:y val="7.6423519976669588E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9875109361329834E-2"/>
+                  <c:y val="6.7164260717410329E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$80:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$80:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>290.63912199999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>279.07702899999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272.53928999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>263.414311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.94462899999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>246.825422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>239.912556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>231.583123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225.55396200000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>219.93043399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26D4-4E50-985C-59A85F1B0ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="727223688"/>
+        <c:axId val="727220408"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$79</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>BIOP1SS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$80:$B$89</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$80:$E$89</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>17.534724000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>21.035291000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26.376899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>29.086065999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>31.922771000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35.458129</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>38.964077000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42.921565999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>47.944977999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>50.064984000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-26D4-4E50-985C-59A85F1B0ACF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$79</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>BIOP2SD</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$80:$B$89</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$80:$F$89</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>17.844457999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20.525625999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26.006658000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>28.352665999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30.664483000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>33.450268000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>35.930993999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>39.183377999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>41.038983000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44.509864</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-26D4-4E50-985C-59A85F1B0ACF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIOPPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9097331583552061E-2"/>
+                  <c:y val="5.7835739282589595E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8541776027996503E-2"/>
+                  <c:y val="-7.1793890347039993E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.631955380577428E-2"/>
+                  <c:y val="-6.2534631087780693E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7430664916885438E-2"/>
+                  <c:y val="-4.4016112569262175E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7430664916885389E-2"/>
+                  <c:y val="-4.4016112569262175E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3541776027996501E-2"/>
+                  <c:y val="-4.4016112569262196E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2430664916885414E-2"/>
+                  <c:y val="-3.4756853310002937E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-26D4-4E50-985C-59A85F1B0ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$80:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$80:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.077964000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.647432999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.143312000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.114975000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.908113999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.655831999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.017572000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.010458999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.482028999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.421756000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26D4-4E50-985C-59A85F1B0ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488278904"/>
+        <c:axId val="488285136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="727223688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Empty</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Event Attributes Proportion in 1000 Dimensions</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727220408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="727220408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Matching</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727223688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488285136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488278904"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488278904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="488285136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34879965004374452"/>
+          <c:y val="4.1666666666666664E-2"/>
+          <c:w val="0.30240048118985124"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15837,6 +17380,46 @@
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -19475,6 +21058,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -19726,6 +21825,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>145774</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>13253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>980661</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A95C4C-92C9-4841-809D-E05DDC56949D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19997,17 +22132,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
@@ -20963,7 +23098,7 @@
         <v>7.7767333333333341E-2</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" ref="C41:E41" si="6">AVERAGE(C32:C40)</f>
+        <f t="shared" ref="C41:D41" si="6">AVERAGE(C32:C40)</f>
         <v>22.414246888888886</v>
       </c>
       <c r="D41" s="3">
@@ -21031,11 +23166,237 @@
         <v>0.99490844444444448</v>
       </c>
     </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>100</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C80" s="4">
+        <v>290.63912199999999</v>
+      </c>
+      <c r="D80" s="4">
+        <v>19.077964000000001</v>
+      </c>
+      <c r="E80" s="4">
+        <v>17.534724000000001</v>
+      </c>
+      <c r="F80" s="4">
+        <v>17.844457999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>200</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C81" s="4">
+        <v>279.07702899999998</v>
+      </c>
+      <c r="D81" s="4">
+        <v>21.647432999999999</v>
+      </c>
+      <c r="E81" s="4">
+        <v>21.035291000000001</v>
+      </c>
+      <c r="F81" s="4">
+        <v>20.525625999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>300</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C82" s="4">
+        <v>272.53928999999999</v>
+      </c>
+      <c r="D82" s="4">
+        <v>26.143312000000002</v>
+      </c>
+      <c r="E82" s="4">
+        <v>26.376899999999999</v>
+      </c>
+      <c r="F82" s="4">
+        <v>26.006658000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>400</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C83" s="4">
+        <v>263.414311</v>
+      </c>
+      <c r="D83" s="4">
+        <v>30.114975000000001</v>
+      </c>
+      <c r="E83" s="4">
+        <v>29.086065999999999</v>
+      </c>
+      <c r="F83" s="4">
+        <v>28.352665999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>500</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C84" s="4">
+        <v>254.94462899999999</v>
+      </c>
+      <c r="D84" s="4">
+        <v>32.908113999999998</v>
+      </c>
+      <c r="E84" s="4">
+        <v>31.922771000000001</v>
+      </c>
+      <c r="F84" s="4">
+        <v>30.664483000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>600</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C85" s="4">
+        <v>246.825422</v>
+      </c>
+      <c r="D85" s="4">
+        <v>35.655831999999997</v>
+      </c>
+      <c r="E85" s="4">
+        <v>35.458129</v>
+      </c>
+      <c r="F85" s="4">
+        <v>33.450268000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>700</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C86" s="4">
+        <v>239.912556</v>
+      </c>
+      <c r="D86" s="4">
+        <v>39.017572000000001</v>
+      </c>
+      <c r="E86" s="4">
+        <v>38.964077000000003</v>
+      </c>
+      <c r="F86" s="4">
+        <v>35.930993999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>800</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C87" s="4">
+        <v>231.583123</v>
+      </c>
+      <c r="D87" s="4">
+        <v>41.010458999999997</v>
+      </c>
+      <c r="E87" s="4">
+        <v>42.921565999999999</v>
+      </c>
+      <c r="F87" s="4">
+        <v>39.183377999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>900</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C88" s="4">
+        <v>225.55396200000001</v>
+      </c>
+      <c r="D88" s="4">
+        <v>44.482028999999997</v>
+      </c>
+      <c r="E88" s="4">
+        <v>47.944977999999999</v>
+      </c>
+      <c r="F88" s="4">
+        <v>41.038983000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="4">
+        <v>219.93043399999999</v>
+      </c>
+      <c r="D89" s="4">
+        <v>46.421756000000002</v>
+      </c>
+      <c r="E89" s="4">
+        <v>50.064984000000003</v>
+      </c>
+      <c r="F89" s="4">
+        <v>44.509864</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:V40">
-    <sortCondition ref="A32:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A80:F99">
+    <sortCondition descending="1" ref="B80:B99"/>
   </sortState>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="A78:B78"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -21047,7 +23408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3D504C-C82B-40F2-B130-E960EA46E8C7}">
   <dimension ref="A1:AG240"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -32121,7 +34482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7CFF20-8C08-48FF-9B55-BDA8E30D2340}">
   <dimension ref="A1:AR217"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2:AE10"/>
     </sheetView>
   </sheetViews>
@@ -45490,7 +47851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FF69B2-DA7F-4772-9722-B3443EE72680}">
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2:AE10"/>
     </sheetView>
   </sheetViews>
